--- a/assets/Class-III (PWisDetails).xlsx
+++ b/assets/Class-III (PWisDetails).xlsx
@@ -27,23 +27,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Depot </t>
-  </si>
-  <si>
     <t>PF No.</t>
   </si>
   <si>
     <t>HRMS ID</t>
   </si>
   <si>
-    <t>Date of joining in present post.</t>
-  </si>
-  <si>
     <t>S.No.</t>
   </si>
   <si>
@@ -159,13 +153,106 @@
   </si>
   <si>
     <t>NMLOHM</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Name in Hindi</t>
+  </si>
+  <si>
+    <t>Desigantion in Hindi</t>
+  </si>
+  <si>
+    <t>Date of joining in present post</t>
+  </si>
+  <si>
+    <t>Engine Pass Renewal Application Date</t>
+  </si>
+  <si>
+    <t>Card Pass Renewal Application Date</t>
+  </si>
+  <si>
+    <t>प्रभात रंजन</t>
+  </si>
+  <si>
+    <t>वरिष्‍ठ खण्‍ड अभियंता (रेल पथ) / सरईग्राम (इंचार्ज)</t>
+  </si>
+  <si>
+    <t>मनोज कुमार दास</t>
+  </si>
+  <si>
+    <t>वरिष्‍ठ खण्‍ड अभियंता (रेल पथ) / बरगवाँ (सेक्‍शनल)</t>
+  </si>
+  <si>
+    <t>शिव शंकर कुमार</t>
+  </si>
+  <si>
+    <t>वरिष्‍ठ खण्‍ड अभियंता (रेल पथ) / सरईग्राम (सेक्‍शनल)</t>
+  </si>
+  <si>
+    <t>उमेश कुमार</t>
+  </si>
+  <si>
+    <t>वरिष्‍ठ खण्‍ड अभियंता (रेल पथ) / देवराग्राम</t>
+  </si>
+  <si>
+    <t>राम जी जायसवाल</t>
+  </si>
+  <si>
+    <t>कनिष्‍ठ अभियंता (रेल पथ) / गजराबहरा</t>
+  </si>
+  <si>
+    <t>विजय कुमार</t>
+  </si>
+  <si>
+    <t>कनिष्‍ठ अभियंता (रेल पथ) / बरगवाँ</t>
+  </si>
+  <si>
+    <t>दिलीप कुमार जायसवाल</t>
+  </si>
+  <si>
+    <t>कनिष्‍ठ अभियंता (रेल पथ) / भरसेड़ी</t>
+  </si>
+  <si>
+    <t>अशोक सिंह</t>
+  </si>
+  <si>
+    <t>कनिष्‍ठ अभियंता (रेल पथ) / गोंदवाली</t>
+  </si>
+  <si>
+    <t>दीनानाथ जोगी</t>
+  </si>
+  <si>
+    <t>कनिष्‍ठ अभियंता (रेल पथ) / निवासरोड</t>
+  </si>
+  <si>
+    <t>संदीप पाण्‍डेय</t>
+  </si>
+  <si>
+    <t>कनिष्‍ठ अभियंता (रेल पथ) / USFD/ बरगवाँ</t>
+  </si>
+  <si>
+    <t>पुष्‍पेन्‍द्र कुमार सिंह</t>
+  </si>
+  <si>
+    <t>कार्यालय अधीक्षक / सरईग्राम</t>
+  </si>
+  <si>
+    <t>सिद्धार्थ विश्‍वारी</t>
+  </si>
+  <si>
+    <t>सीनियर क्‍लर्क (रेल पथ) / सरईग्राम</t>
+  </si>
+  <si>
+    <t>DOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +263,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -223,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -251,6 +345,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,352 +629,494 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="18.140625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.42578125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="22.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" style="8" customWidth="1"/>
+    <col min="8" max="10" width="10.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>6</v>
+      <c r="B2" s="5">
+        <v>45206478128</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>45206478128</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6">
-        <v>45689</v>
-      </c>
-      <c r="G2" s="6">
-        <v>37643</v>
+      <c r="F2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="H2" s="6">
         <v>32867</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="6">
+        <v>37643</v>
+      </c>
+      <c r="J2" s="6">
+        <v>54788</v>
+      </c>
+      <c r="K2" s="6">
+        <v>45689</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>16</v>
+      <c r="B3" s="5">
+        <v>45216013273</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5">
-        <v>45216013273</v>
+        <v>35</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="6">
-        <v>41579</v>
-      </c>
-      <c r="G3" s="6">
-        <v>40260</v>
+        <v>15</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="H3" s="6">
         <v>29221</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="6">
+        <v>40260</v>
+      </c>
+      <c r="J3" s="6">
+        <v>51135</v>
+      </c>
+      <c r="K3" s="6">
+        <v>41579</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5">
+        <v>45216018288</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5">
-        <v>45216018288</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="6">
-        <v>45125</v>
-      </c>
-      <c r="G4" s="6">
-        <v>41684</v>
+      <c r="F4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="H4" s="9">
         <v>32052</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="6">
+        <v>41684</v>
+      </c>
+      <c r="J4" s="6">
+        <v>53996</v>
+      </c>
+      <c r="K4" s="6">
+        <v>45125</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>18</v>
+      <c r="B5" s="5">
+        <v>45216013250</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="5">
-        <v>45216013250</v>
+        <v>36</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="6">
-        <v>45125</v>
-      </c>
-      <c r="G5" s="6">
-        <v>40625</v>
+        <v>27</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="H5" s="9">
         <v>30406</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="6">
+        <v>40625</v>
+      </c>
+      <c r="J5" s="6">
+        <v>52321</v>
+      </c>
+      <c r="K5" s="6">
+        <v>45125</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>19</v>
+      <c r="B6" s="5">
+        <v>45216015398</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="5">
-        <v>45216015398</v>
+        <v>37</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="6">
-        <v>45015</v>
-      </c>
-      <c r="G6" s="9">
-        <v>41083</v>
+        <v>18</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="H6" s="9">
         <v>30411</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="9">
+        <v>41083</v>
+      </c>
+      <c r="J6" s="9">
+        <v>52351</v>
+      </c>
+      <c r="K6" s="6">
+        <v>45015</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>26</v>
+      <c r="B7" s="5">
+        <v>45216015227</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="5">
-        <v>45216015227</v>
+        <v>39</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="6">
+        <v>29</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="6">
         <v>44937</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5">
+        <v>45216015401</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5">
-        <v>45216015401</v>
+      <c r="D8" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="6">
-        <v>44928</v>
-      </c>
-      <c r="G8" s="9">
-        <v>41086</v>
+        <v>10</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="H8" s="9">
         <v>30512</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="9">
+        <v>41086</v>
+      </c>
+      <c r="J8" s="9">
+        <v>52443</v>
+      </c>
+      <c r="K8" s="6">
+        <v>44928</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>27</v>
+      <c r="B9" s="5">
+        <v>45216015543</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="5">
-        <v>45216015543</v>
+        <v>40</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="6">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="6">
         <v>44926</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>28</v>
+      <c r="B10" s="5">
+        <v>45216015403</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="5">
-        <v>45216015403</v>
+      <c r="D10" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="6">
+        <v>31</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9">
+        <v>41083</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="6">
         <v>45005</v>
       </c>
-      <c r="G10" s="9">
-        <v>41083</v>
-      </c>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>25</v>
+      <c r="B11" s="5">
+        <v>21429805902</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="5">
-        <v>21429805902</v>
+        <v>41</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="6">
+        <v>32</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9">
+        <v>44111</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="6">
         <v>45288</v>
       </c>
-      <c r="G11" s="9">
-        <v>44111</v>
-      </c>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>21</v>
+      <c r="B12" s="5">
+        <v>45205242356</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="5">
-        <v>45205242356</v>
+        <v>38</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="6">
-        <v>44924</v>
-      </c>
-      <c r="G12" s="9">
-        <v>38909</v>
+        <v>28</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="H12" s="9">
         <v>31048</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="9">
+        <v>38909</v>
+      </c>
+      <c r="J12" s="9">
+        <v>52962</v>
+      </c>
+      <c r="K12" s="6">
+        <v>44924</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5">
+        <v>45229808006</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="5">
-        <v>45229808006</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="6">
-        <v>45059</v>
-      </c>
-      <c r="G13" s="6">
-        <v>45059</v>
+      <c r="F13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="H13" s="9">
         <v>35896</v>
       </c>
+      <c r="I13" s="6">
+        <v>45059</v>
+      </c>
+      <c r="J13" s="6">
+        <v>57830</v>
+      </c>
+      <c r="K13" s="6">
+        <v>45059</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H11"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.26" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/assets/Class-III (PWisDetails).xlsx
+++ b/assets/Class-III (PWisDetails).xlsx
@@ -29,9 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>PF No.</t>
   </si>
   <si>
@@ -246,6 +243,9 @@
   </si>
   <si>
     <t>DOR</t>
+  </si>
+  <si>
+    <t>Employee Name</t>
   </si>
 </sst>
 </file>
@@ -632,7 +632,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,43 +653,43 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -700,19 +700,19 @@
         <v>45206478128</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="H2" s="6">
         <v>32867</v>
@@ -737,19 +737,19 @@
         <v>45216013273</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="H3" s="6">
         <v>29221</v>
@@ -774,19 +774,19 @@
         <v>45216018288</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>53</v>
       </c>
       <c r="H4" s="9">
         <v>32052</v>
@@ -811,19 +811,19 @@
         <v>45216013250</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="H5" s="9">
         <v>30406</v>
@@ -848,19 +848,19 @@
         <v>45216015398</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="F6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="H6" s="9">
         <v>30411</v>
@@ -885,19 +885,19 @@
         <v>45216015227</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -916,19 +916,19 @@
         <v>45216015401</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="F8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="H8" s="9">
         <v>30512</v>
@@ -953,19 +953,19 @@
         <v>45216015543</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -984,19 +984,19 @@
         <v>45216015403</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9">
@@ -1017,19 +1017,19 @@
         <v>21429805902</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>67</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9">
@@ -1050,19 +1050,19 @@
         <v>45205242356</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="H12" s="9">
         <v>31048</v>
@@ -1087,19 +1087,19 @@
         <v>45229808006</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="9">
         <v>35896</v>
